--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C469CE6-6E58-4929-AB97-7E0072C80C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>GENERO</t>
+  </si>
+  <si>
+    <t>VACUNA COVID</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>AREA DE TRABAJO</t>
+  </si>
+  <si>
+    <t>SUELDO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +96,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,84 +420,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EDAD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GENERO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VACUNA COVID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DIRECCION</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CORREO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TELEFONO</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>AREA DE TRABAJO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SUELDO</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C469CE6-6E58-4929-AB97-7E0072C80C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>APELLIDO</t>
-  </si>
-  <si>
-    <t>EDAD</t>
-  </si>
-  <si>
-    <t>GENERO</t>
-  </si>
-  <si>
-    <t>VACUNA COVID</t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>TELEFONO</t>
-  </si>
-  <si>
-    <t>AREA DE TRABAJO</t>
-  </si>
-  <si>
-    <t>SUELDO</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,55 +420,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>APELLIDO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EDAD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GENERO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VACUNA COVID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>AREA DE TRABAJO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SUELDO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1235678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sebas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gft</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>jh</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ev</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>vfve</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>vfsdv</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>btrs</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>vfesaz</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WWWW</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EDS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ESDF</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EDRF</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BGTRE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VFESW</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CDERT</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FGH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GHJ</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>GH</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BHU</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NUU</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NHJ</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NJI</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,10 +672,8 @@
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -729,6 +727,65 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1245</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GDTHF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FGHRT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>VBFG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BEY7D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FYEWIO</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>FHY8W</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BYFVEU</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>HFYRE</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>VFYREU</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C469CE6-6E58-4929-AB97-7E0072C80C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD3142-6991-4A37-8EC1-BBE428F91AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -59,13 +59,43 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +108,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,15 +148,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +479,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,11 +535,115 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD3142-6991-4A37-8EC1-BBE428F91AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55A4A5-7DE4-40A6-A0D0-EBA1CE5D1113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -61,41 +61,26 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>RRR</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>CONTRASEÑAS</t>
+  </si>
+  <si>
+    <t>Hora de Entrada</t>
+  </si>
+  <si>
+    <t>Hora de Salida</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,14 +93,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,35 +125,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,26 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,115 +486,27 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B55A4A5-7DE4-40A6-A0D0-EBA1CE5D1113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D032871-DFF8-4FFD-8D24-CBAA49750EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Hora de Salida</t>
-  </si>
-  <si>
-    <t>CONTRASEÑA</t>
   </si>
 </sst>
 </file>
@@ -437,19 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="15" max="15" width="22.77734375" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,11 +491,8 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D032871-DFF8-4FFD-8D24-CBAA49750EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83A39B-EE63-439C-981D-DDDA80B983A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>Hora de Salida</t>
+  </si>
+  <si>
+    <t>Jean Piere</t>
+  </si>
+  <si>
+    <t>Requena Moran</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>2 dosis</t>
+  </si>
+  <si>
+    <t>fkkf</t>
+  </si>
+  <si>
+    <t>jeank2jhjdwa@gmail.com</t>
+  </si>
+  <si>
+    <t>kdkkd</t>
+  </si>
+  <si>
+    <t>jean24680</t>
   </si>
 </sst>
 </file>
@@ -436,11 +460,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -493,10 +533,51 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>76828832</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>96783543738</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44580.786874000703</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44580.786957249657</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="66" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -1,123 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83A39B-EE63-439C-981D-DDDA80B983A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>APELLIDO</t>
-  </si>
-  <si>
-    <t>EDAD</t>
-  </si>
-  <si>
-    <t>GENERO</t>
-  </si>
-  <si>
-    <t>VACUNA COVID</t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>TELEFONO</t>
-  </si>
-  <si>
-    <t>AREA DE TRABAJO</t>
-  </si>
-  <si>
-    <t>SUELDO</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>CONTRASEÑAS</t>
-  </si>
-  <si>
-    <t>Hora de Entrada</t>
-  </si>
-  <si>
-    <t>Hora de Salida</t>
-  </si>
-  <si>
-    <t>Jean Piere</t>
-  </si>
-  <si>
-    <t>Requena Moran</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>2 dosis</t>
-  </si>
-  <si>
-    <t>fkkf</t>
-  </si>
-  <si>
-    <t>jeank2jhjdwa@gmail.com</t>
-  </si>
-  <si>
-    <t>kdkkd</t>
-  </si>
-  <si>
-    <t>jean24680</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,127 +424,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>APELLIDO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EDAD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GENERO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VACUNA COVID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>AREA DE TRABAJO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SUELDO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CONTRASEÑAS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de Entrada</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
+      <c r="B2" t="n">
+        <v>76828832</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jean Piere</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Requena Moran</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 dosis</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>fkkf</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>jeank2jhjdwa@gmail.com</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>96783543738</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>kdkkd</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>jean24680</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>44580.78687400463</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>44580.78695724537</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>76828832</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>96783543738</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>44580.786874000703</v>
-      </c>
-      <c r="P2" s="2">
-        <v>44580.786957249657</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>70779242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Castro Pacahuala</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 dosis</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>frgtg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>sebascvty@gmail.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>914417441</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>bhgytf</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>sebas2706</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="66" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -1,40 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Cursos\2022-0\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2D0A8E-7A6A-41D9-9795-48CD9388AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>APELLIDO</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>GENERO</t>
+  </si>
+  <si>
+    <t>VACUNA COVID</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>AREA DE TRABAJO</t>
+  </si>
+  <si>
+    <t>SUELDO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>CONTRASEÑAS</t>
+  </si>
+  <si>
+    <t>Hora de Entrada</t>
+  </si>
+  <si>
+    <t>Hora de Salida</t>
+  </si>
+  <si>
+    <t>Jean Piere</t>
+  </si>
+  <si>
+    <t>Requena Moran</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>2 dosis</t>
+  </si>
+  <si>
+    <t>fkkf</t>
+  </si>
+  <si>
+    <t>jeank2jhjdwa@gmail.com</t>
+  </si>
+  <si>
+    <t>kdkkd</t>
+  </si>
+  <si>
+    <t>jean24680</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Castro Pacahuala</t>
+  </si>
+  <si>
+    <t>frgtg</t>
+  </si>
+  <si>
+    <t>sebascvty@gmail.com</t>
+  </si>
+  <si>
+    <t>bhgytf</t>
+  </si>
+  <si>
+    <t>sebas2706</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Lozada Montenegro</t>
+  </si>
+  <si>
+    <t>Arias Villanueva</t>
+  </si>
+  <si>
+    <t>Bendezú Garcia</t>
+  </si>
+  <si>
+    <t>Añanca  Arango</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>3 dosis</t>
+  </si>
+  <si>
+    <t>4 dosis</t>
+  </si>
+  <si>
+    <t>5 dosis</t>
+  </si>
+  <si>
+    <t>6 dosis</t>
+  </si>
+  <si>
+    <t>fgcbh</t>
+  </si>
+  <si>
+    <t>frtgl</t>
+  </si>
+  <si>
+    <t>frnju</t>
+  </si>
+  <si>
+    <t>fecghj</t>
+  </si>
+  <si>
+    <t>gabribdyub@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigodeftyvu@gmail.com</t>
+  </si>
+  <si>
+    <t>larrycdbghsgjh@gmail.com</t>
+  </si>
+  <si>
+    <t>pedrofghnui@gmail.com</t>
+  </si>
+  <si>
+    <t>vgrdr</t>
+  </si>
+  <si>
+    <t>bgthyn</t>
+  </si>
+  <si>
+    <t>nhuvytry</t>
+  </si>
+  <si>
+    <t>vfgvrt</t>
+  </si>
+  <si>
+    <t>gabi1234</t>
+  </si>
+  <si>
+    <t>rodri9876</t>
+  </si>
+  <si>
+    <t>larry4567</t>
+  </si>
+  <si>
+    <t>pedro6543</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +243,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,230 +569,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>APELLIDO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EDAD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GENERO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VACUNA COVID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DIRECCION</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CORREO</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TELEFONO</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>AREA DE TRABAJO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SUELDO</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CONTRASEÑAS</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Entrada</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Salida</t>
-        </is>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>76828832</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jean Piere</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Requena Moran</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 dosis</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>fkkf</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>jeank2jhjdwa@gmail.com</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>96783543738</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>kdkkd</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>jean24680</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>44580.78687400463</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>44580.78695724537</v>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>967835437</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44580.786874004632</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44580.786957245371</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>70779242</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sebastian</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Castro Pacahuala</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 dosis</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>frgtg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>sebascvty@gmail.com</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>914417441</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>bhgytf</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>sebas2706</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>70779242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>987654321</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>72589361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>926143782</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>71528963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>930154782</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>70569241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>935418624</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>78596231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>9263001743</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83A39B-EE63-439C-981D-DDDA80B983A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E0AA1-9BD0-4D59-AD7D-AA30243D41F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,99 @@
   </si>
   <si>
     <t>jean24680</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Castro Pacahuala</t>
+  </si>
+  <si>
+    <t>frgtg</t>
+  </si>
+  <si>
+    <t>sebascvty@gmail.com</t>
+  </si>
+  <si>
+    <t>bhgytf</t>
+  </si>
+  <si>
+    <t>sebas2706</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Lozada Montenegro</t>
+  </si>
+  <si>
+    <t>Arias Villanueva</t>
+  </si>
+  <si>
+    <t>Bendezú Garcia</t>
+  </si>
+  <si>
+    <t>Añanca  Arango</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>fgcbh</t>
+  </si>
+  <si>
+    <t>frtgl</t>
+  </si>
+  <si>
+    <t>frnju</t>
+  </si>
+  <si>
+    <t>fecghj</t>
+  </si>
+  <si>
+    <t>gabribdyub@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigodeftyvu@gmail.com</t>
+  </si>
+  <si>
+    <t>larrycdbghsgjh@gmail.com</t>
+  </si>
+  <si>
+    <t>pedrofghnui@gmail.com</t>
+  </si>
+  <si>
+    <t>vgrdr</t>
+  </si>
+  <si>
+    <t>bgthyn</t>
+  </si>
+  <si>
+    <t>nhuvytry</t>
+  </si>
+  <si>
+    <t>vfgvrt</t>
+  </si>
+  <si>
+    <t>gabi1234</t>
+  </si>
+  <si>
+    <t>rodri9876</t>
+  </si>
+  <si>
+    <t>larry4567</t>
+  </si>
+  <si>
+    <t>pedro6543</t>
   </si>
 </sst>
 </file>
@@ -99,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +206,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,12 +249,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,28 +559,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -561,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>96783543738</v>
+        <v>967835437</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -570,14 +665,206 @@
         <v>23</v>
       </c>
       <c r="O2" s="2">
-        <v>44580.786874000703</v>
+        <v>44580.786874004632</v>
       </c>
       <c r="P2" s="2">
-        <v>44580.786957249657</v>
+        <v>44580.786957245371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>70779242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>987654321</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>72589361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>926143782</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>71528963</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>930154782</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>70569241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>935418624</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>78596231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>9263001743</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="66" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACEA478-56E6-46A5-983E-AD719B2F300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82C4AD-3F72-4D6A-90BC-E629AC9A795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6528" yWindow="468" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>DNI</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Dr Pedro Añanca  Arango</t>
   </si>
   <si>
-    <t>pedro6543</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>865640253</t>
   </si>
   <si>
-    <t>jean246802</t>
-  </si>
-  <si>
     <t>Requejo Sosa</t>
   </si>
   <si>
@@ -341,6 +335,33 @@
   </si>
   <si>
     <t>Dr Gael Cortés Ontiveros Hijo</t>
+  </si>
+  <si>
+    <t>5IdXT3rJu</t>
+  </si>
+  <si>
+    <t>tleiije6a</t>
+  </si>
+  <si>
+    <t>0ypm6s5rg</t>
+  </si>
+  <si>
+    <t>y934cm1zh</t>
+  </si>
+  <si>
+    <t>r8v68h01g</t>
+  </si>
+  <si>
+    <t>b7qsrlc5s</t>
+  </si>
+  <si>
+    <t>3n7yu90ww</t>
+  </si>
+  <si>
+    <t>spw0l5els</t>
+  </si>
+  <si>
+    <t>ohu6o1saq</t>
   </si>
 </sst>
 </file>
@@ -348,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -434,7 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -842,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -889,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -930,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>31</v>
@@ -971,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -1012,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -1053,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
@@ -1071,7 +1092,7 @@
         <v>2167</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1079,10 +1100,10 @@
         <v>78596231</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D8">
         <v>37</v>
@@ -1094,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>49</v>
@@ -1103,7 +1124,7 @@
         <v>926300173</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
         <v>32</v>
@@ -1112,7 +1133,7 @@
         <v>3406</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1120,10 +1141,10 @@
         <v>76828855</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>29</v>
@@ -1135,25 +1156,25 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>965640252</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="9">
         <v>3406</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1161,10 +1182,10 @@
         <v>76832412</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -1176,25 +1197,25 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="9">
         <v>3406</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2">
         <v>44581.664346467791</v>
@@ -1208,10 +1229,10 @@
         <v>36272733</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5">
         <v>35</v>
@@ -1223,22 +1244,25 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>989516931</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L11" s="9">
         <v>2588</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1246,10 +1270,10 @@
         <v>31053122</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>36</v>
@@ -1261,22 +1285,25 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12">
         <v>948719019</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L12" s="9">
         <v>3406</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1284,10 +1311,10 @@
         <v>72719074</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>47</v>
@@ -1299,22 +1326,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <v>931141044</v>
       </c>
       <c r="J13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" s="9">
         <v>3406</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1322,10 +1352,10 @@
         <v>83698617</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>41</v>
@@ -1337,22 +1367,25 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>922049629</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L14" s="9">
         <v>3406</v>
+      </c>
+      <c r="N14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1360,10 +1393,10 @@
         <v>50412289</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -1375,22 +1408,25 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>931270381</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L15" s="9">
         <v>3406</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82C4AD-3F72-4D6A-90BC-E629AC9A795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D7000-41FE-4123-BE84-CAF667B99D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6528" yWindow="468" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>DNI</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Karen</t>
-  </si>
-  <si>
-    <t>865640253</t>
   </si>
   <si>
     <t>Requejo Sosa</t>
@@ -450,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -465,6 +462,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -770,27 +768,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
     <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
     <col min="10" max="10" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -810,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -863,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>18</v>
@@ -910,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -951,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>31</v>
@@ -992,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
@@ -1033,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -1074,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>49</v>
@@ -1092,7 +1091,7 @@
         <v>2167</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1115,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>49</v>
@@ -1133,7 +1132,7 @@
         <v>3406</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1144,7 +1143,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>29</v>
@@ -1156,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>56</v>
@@ -1174,7 +1173,7 @@
         <v>3406</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1185,7 +1184,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -1197,16 +1196,16 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="I10" s="10">
+        <v>865640253</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>57</v>
@@ -1215,7 +1214,7 @@
         <v>3406</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O10" s="2">
         <v>44581.664346467791</v>
@@ -1229,10 +1228,10 @@
         <v>36272733</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5">
         <v>35</v>
@@ -1244,25 +1243,25 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>989516931</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11" s="9">
         <v>2588</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1270,10 +1269,10 @@
         <v>31053122</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D12">
         <v>36</v>
@@ -1285,25 +1284,25 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>948719019</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" s="9">
         <v>3406</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1311,10 +1310,10 @@
         <v>72719074</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D13">
         <v>47</v>
@@ -1326,25 +1325,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>931141044</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L13" s="9">
         <v>3406</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1352,10 +1351,10 @@
         <v>83698617</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
       </c>
       <c r="D14">
         <v>41</v>
@@ -1367,25 +1366,25 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>922049629</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L14" s="9">
         <v>3406</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1393,10 +1392,10 @@
         <v>50412289</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
       </c>
       <c r="D15">
         <v>35</v>
@@ -1408,25 +1407,25 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>931270381</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L15" s="9">
         <v>3406</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8B3CCA-AFC8-423A-960D-E0B6A26F7E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA3D0B-8398-4BD3-B7B6-9FAE3B3D2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6528" yWindow="468" windowWidth="15804" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">GENERO (Masculino/Femenino) </t>
   </si>
   <si>
-    <t>DOSIS DE VACUNA COVID</t>
-  </si>
-  <si>
     <t>DIRECCION</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>ohu6o1saq</t>
+  </si>
+  <si>
+    <t>DOSIS DE VACUNA COVID(1/0)</t>
   </si>
 </sst>
 </file>
@@ -732,15 +732,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,78 +757,78 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>76828832</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
       <c r="I2">
         <v>967835437</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
       <c r="L2">
         <v>3406</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="2">
         <v>44582.089045583933</v>
@@ -837,332 +837,333 @@
         <v>44582.08917258837</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>70779242</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3">
         <v>987654321</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
       </c>
       <c r="L3">
         <v>4306</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>72589361</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4">
         <v>43</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
       </c>
       <c r="I4">
         <v>926143782</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
       </c>
       <c r="L4">
         <v>5504</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>71528963</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
       </c>
       <c r="D5">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
       <c r="I5">
         <v>930154782</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5">
         <v>2588</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70569241</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
       </c>
       <c r="D6">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
       <c r="I6">
         <v>935418624</v>
       </c>
       <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
       </c>
       <c r="L6">
         <v>5193</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>78596231</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
       </c>
       <c r="D7">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
       </c>
       <c r="I7">
         <v>926300173</v>
       </c>
       <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
         <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
       </c>
       <c r="L7">
         <v>2167</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>78596231</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
       </c>
       <c r="D8">
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8">
         <v>926300173</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8">
         <v>3406</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>76828855</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
       </c>
       <c r="D9">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
       </c>
       <c r="I9">
         <v>965640252</v>
       </c>
       <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L9">
         <v>3406</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>76832412</v>
       </c>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
       </c>
       <c r="D10">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
       </c>
       <c r="I10">
         <v>865640253</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10">
         <v>3406</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="2">
         <v>44581.664346469908</v>
@@ -1171,209 +1172,209 @@
         <v>44581.664427523137</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>36272733</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
       </c>
       <c r="D11">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
         <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
       </c>
       <c r="I11">
         <v>989516931</v>
       </c>
       <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
         <v>81</v>
-      </c>
-      <c r="K11" t="s">
-        <v>82</v>
       </c>
       <c r="L11">
         <v>2588</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>31053122</v>
       </c>
       <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
       </c>
       <c r="D12">
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
         <v>86</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
       </c>
       <c r="I12">
         <v>948719019</v>
       </c>
       <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
         <v>88</v>
-      </c>
-      <c r="K12" t="s">
-        <v>89</v>
       </c>
       <c r="L12">
         <v>3406</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>72719074</v>
       </c>
       <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
       </c>
       <c r="D13">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
         <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
       </c>
       <c r="I13">
         <v>931141044</v>
       </c>
       <c r="J13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
         <v>95</v>
-      </c>
-      <c r="K13" t="s">
-        <v>96</v>
       </c>
       <c r="L13">
         <v>3406</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>83698617</v>
       </c>
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
       </c>
       <c r="D14">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
         <v>100</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
       </c>
       <c r="I14">
         <v>922049629</v>
       </c>
       <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
         <v>102</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
       </c>
       <c r="L14">
         <v>3406</v>
       </c>
       <c r="N14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>50412289</v>
       </c>
       <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>106</v>
       </c>
       <c r="D15">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
         <v>107</v>
-      </c>
-      <c r="H15" t="s">
-        <v>108</v>
       </c>
       <c r="I15">
         <v>931270381</v>
       </c>
       <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
         <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
       </c>
       <c r="L15">
         <v>3406</v>
       </c>
       <c r="N15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.3">

--- a/Hospital.xlsx
+++ b/Hospital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Proyecto\trabajo-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA3D0B-8398-4BD3-B7B6-9FAE3B3D2A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C57B6E4-64C9-42DE-9840-C1DFA351FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>DNI</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">GENERO (Masculino/Femenino) </t>
   </si>
   <si>
+    <t>DOSIS DE VACUNA COVID(1/0)</t>
+  </si>
+  <si>
     <t>DIRECCION</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>jean24680</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Sebastian</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>Dr Rodrigo Arias Villanueva</t>
   </si>
   <si>
+    <t>ONCOLOGIA</t>
+  </si>
+  <si>
     <t>rodri9876</t>
   </si>
   <si>
@@ -208,6 +217,9 @@
     <t>Dr Daniel Añanca  villanueva</t>
   </si>
   <si>
+    <t>NEUMOLOGIA</t>
+  </si>
+  <si>
     <t>0ypm6s5rg</t>
   </si>
   <si>
@@ -265,9 +277,6 @@
     <t>Dr Gael Cortés Ontiveros Hijo</t>
   </si>
   <si>
-    <t>NEUMOLOGIA</t>
-  </si>
-  <si>
     <t>5IdXT3rJu</t>
   </si>
   <si>
@@ -328,9 +337,6 @@
     <t>Dr Gabriel Alan Fonseca Lozada</t>
   </si>
   <si>
-    <t>ONCOLOGIA</t>
-  </si>
-  <si>
     <t>spw0l5els</t>
   </si>
   <si>
@@ -353,9 +359,6 @@
   </si>
   <si>
     <t>ohu6o1saq</t>
-  </si>
-  <si>
-    <t>DOSIS DE VACUNA COVID(1/0)</t>
   </si>
 </sst>
 </file>
@@ -363,9 +366,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,14 +380,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,14 +417,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,84 +750,88 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>76828832</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>967835437</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>3406</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2">
-        <v>44582.089045583933</v>
+        <v>44582.089045578701</v>
       </c>
       <c r="P2" s="2">
-        <v>44582.08917258837</v>
+        <v>44582.08917259259</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -842,40 +839,43 @@
         <v>70779242</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>987654321</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>4306</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -883,40 +883,43 @@
         <v>72589361</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>926143782</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>5504</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -924,40 +927,43 @@
         <v>71528963</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
       </c>
       <c r="I5">
         <v>930154782</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="L5">
         <v>2588</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -965,40 +971,43 @@
         <v>70569241</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <v>935418624</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <v>5193</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,82 +1015,87 @@
         <v>78596231</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I7">
         <v>926300173</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L7">
         <v>2167</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>78596231</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>926300173</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L8">
         <v>3406</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1089,40 +1103,43 @@
         <v>76828855</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I9">
         <v>965640252</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
       </c>
       <c r="L9">
         <v>3406</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1130,46 +1147,49 @@
         <v>76832412</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I10">
         <v>865640253</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>3406</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O10" s="2">
         <v>44581.664346469908</v>
       </c>
       <c r="P10" s="2">
         <v>44581.664427523137</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1177,40 +1197,43 @@
         <v>36272733</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>989516931</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L11">
         <v>2588</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,40 +1241,43 @@
         <v>31053122</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I12">
         <v>948719019</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L12">
         <v>3406</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1259,40 +1285,43 @@
         <v>72719074</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I13">
         <v>931141044</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L13">
         <v>3406</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,40 +1329,43 @@
         <v>83698617</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D14">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I14">
         <v>922049629</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="L14">
         <v>3406</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1341,47 +1373,46 @@
         <v>50412289</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15">
         <v>931270381</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L15">
         <v>3406</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K18" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>